--- a/data/trans_orig/P25D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>3912</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1243</v>
+        <v>1677</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9598</v>
+        <v>11044</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01226909849265239</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0038982669225743</v>
+        <v>0.005259067058381688</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03010253996717634</v>
+        <v>0.03463727488567539</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>4042</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1576</v>
+        <v>1432</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9454</v>
+        <v>9394</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01278714859915388</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004986487088033662</v>
+        <v>0.004530620056783309</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02991197592897745</v>
+        <v>0.02972228069683297</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,16 +786,16 @@
         <v>3908</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14225</v>
+        <v>13973</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01252698748619763</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006155914431874028</v>
+        <v>0.006155882651573408</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02240413516265414</v>
+        <v>0.02200737953898813</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8194</v>
+        <v>8715</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.005129211077595228</v>
+        <v>0.005129211077595229</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02570050052235875</v>
+        <v>0.02733247771535159</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>2798</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>833</v>
+        <v>803</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7603</v>
+        <v>7445</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.008851778078741006</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002634281515393958</v>
+        <v>0.002539110910085574</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02405450083620701</v>
+        <v>0.02355455863825216</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -854,19 +854,19 @@
         <v>4433</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1300</v>
+        <v>1256</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10713</v>
+        <v>11159</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.006982331162471504</v>
+        <v>0.006982331162471502</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002046968166738923</v>
+        <v>0.001977485036142652</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01687276929434867</v>
+        <v>0.01757639269072957</v>
       </c>
     </row>
     <row r="6">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2458</v>
+        <v>2395</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.001512897025972221</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.007777543624407491</v>
+        <v>0.007576349645395749</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2622</v>
+        <v>2674</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0007531308004169657</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.004130175009125065</v>
+        <v>0.004211700444765179</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>3660</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10480</v>
+        <v>10541</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01147786666028747</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003705716526929295</v>
+        <v>0.003688157613432303</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0328686614703573</v>
+        <v>0.03305954125635717</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2566</v>
+        <v>2417</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001559515982415485</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008117323232881083</v>
+        <v>0.007645875020839829</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -988,19 +988,19 @@
         <v>4153</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1222</v>
+        <v>1197</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10789</v>
+        <v>10357</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006540441801486115</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001925092768724006</v>
+        <v>0.001886095555909904</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01699276403873492</v>
+        <v>0.01631284097292567</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>7534</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2712</v>
+        <v>1746</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19614</v>
+        <v>18845</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02362911435231286</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008507113383001341</v>
+        <v>0.005475010031946411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06151695131797852</v>
+        <v>0.05910395752660327</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         <v>7534</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1715</v>
+        <v>2272</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18333</v>
+        <v>20922</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01186637472113048</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002701869050983329</v>
+        <v>0.003578377803971322</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02887486382843029</v>
+        <v>0.03295285760337392</v>
       </c>
     </row>
     <row r="9">
@@ -1080,19 +1080,19 @@
         <v>302104</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>288315</v>
+        <v>289763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>309588</v>
+        <v>309988</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.947494709417152</v>
+        <v>0.9474947094171522</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9042466982736332</v>
+        <v>0.9087890398336015</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9709656466283059</v>
+        <v>0.972222794757276</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>526</v>
@@ -1101,19 +1101,19 @@
         <v>308251</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>302115</v>
+        <v>302927</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>312034</v>
+        <v>312513</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.9752886603137173</v>
+        <v>0.9752886603137175</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9558753125571048</v>
+        <v>0.9584458970697148</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9872587308382882</v>
+        <v>0.9887730543203159</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>845</v>
@@ -1122,19 +1122,19 @@
         <v>610355</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>597374</v>
+        <v>595909</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>619750</v>
+        <v>619173</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9613307340282974</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9408863327813326</v>
+        <v>0.9385785961490016</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9761279801609886</v>
+        <v>0.97521970664185</v>
       </c>
     </row>
     <row r="10">
@@ -1226,19 +1226,19 @@
         <v>13776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5422</v>
+        <v>4686</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30908</v>
+        <v>29343</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02596153075872236</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01021844052583802</v>
+        <v>0.00882980740223243</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0582467301518139</v>
+        <v>0.05529734407812797</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1247,19 +1247,19 @@
         <v>13427</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7381</v>
+        <v>7109</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25602</v>
+        <v>23326</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0245690565908845</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01350679446572067</v>
+        <v>0.01300804985501945</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04684799944482891</v>
+        <v>0.04268235090675575</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -1268,19 +1268,19 @@
         <v>27203</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16646</v>
+        <v>16083</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49041</v>
+        <v>44747</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02525505035268747</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01545415662049947</v>
+        <v>0.01493101076146541</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04552850688722889</v>
+        <v>0.04154247648765454</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>22111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12963</v>
+        <v>13195</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>35397</v>
+        <v>35770</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04166761364056567</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02442801539899491</v>
+        <v>0.02486507634173279</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06670448594998606</v>
+        <v>0.06740829320567419</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1318,19 +1318,19 @@
         <v>4382</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12800</v>
+        <v>10790</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008018888662544275</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002068458219550647</v>
+        <v>0.002055048516614276</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02342282072600519</v>
+        <v>0.01974378617382954</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>21</v>
@@ -1339,19 +1339,19 @@
         <v>26493</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16103</v>
+        <v>16130</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>41127</v>
+        <v>42998</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02459572431285122</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01494997940031182</v>
+        <v>0.01497451538881376</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03818179961810021</v>
+        <v>0.03991898422613878</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>11180</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3849</v>
+        <v>4628</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25347</v>
+        <v>25840</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0210683006056855</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007254131572178306</v>
+        <v>0.008721274136028365</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04776689247989473</v>
+        <v>0.04869599770683453</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9870</v>
+        <v>11469</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004664954203229999</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01805976803135154</v>
+        <v>0.02098677760157315</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1410,19 +1410,19 @@
         <v>13729</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5626</v>
+        <v>6118</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27877</v>
+        <v>30426</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01274596106474311</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005222773678761769</v>
+        <v>0.005679445108254872</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02588051781190989</v>
+        <v>0.02824673001470687</v>
       </c>
     </row>
     <row r="14">
@@ -1439,19 +1439,19 @@
         <v>11008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4221</v>
+        <v>3395</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26593</v>
+        <v>24727</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02074497636248827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007955368842436538</v>
+        <v>0.006397626550165575</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05011371083775335</v>
+        <v>0.0465978532378085</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5593</v>
+        <v>6720</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003080077695419002</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01023379468928585</v>
+        <v>0.01229723366006675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1481,19 +1481,19 @@
         <v>12692</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5197</v>
+        <v>5256</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28389</v>
+        <v>27837</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01178258045517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004824436017496234</v>
+        <v>0.004879760588640634</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02635610746513165</v>
+        <v>0.02584310903943299</v>
       </c>
     </row>
     <row r="15">
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23134</v>
+        <v>23443</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01314034047316533</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04359603503618083</v>
+        <v>0.04417773974097665</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4758</v>
+        <v>4185</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002438054463610527</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.008706547983126513</v>
+        <v>0.00765845051563627</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -1552,19 +1552,19 @@
         <v>8305</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1397</v>
+        <v>1853</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>24705</v>
+        <v>26507</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.007710469284048737</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001296974713073482</v>
+        <v>0.001720000572526581</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02293571609667927</v>
+        <v>0.02460874562294562</v>
       </c>
     </row>
     <row r="16">
@@ -1581,19 +1581,19 @@
         <v>465599</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>440319</v>
+        <v>442852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>486813</v>
+        <v>487934</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8774172381593729</v>
+        <v>0.8774172381593728</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8297772985307368</v>
+        <v>0.8345512819685006</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9173956446605961</v>
+        <v>0.9195069124317627</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>694</v>
@@ -1602,19 +1602,19 @@
         <v>523120</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>510413</v>
+        <v>510994</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>531989</v>
+        <v>531801</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9572289683843117</v>
+        <v>0.9572289683843116</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9339764538181337</v>
+        <v>0.935040752730651</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9734584027117099</v>
+        <v>0.9731148986106374</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1040</v>
@@ -1623,19 +1623,19 @@
         <v>988719</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>961752</v>
+        <v>959411</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1010229</v>
+        <v>1009463</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9179102145304996</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8928750891539966</v>
+        <v>0.8907016239156502</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9378799720776347</v>
+        <v>0.9371692407915304</v>
       </c>
     </row>
     <row r="17">
@@ -1727,19 +1727,19 @@
         <v>5580</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1935</v>
+        <v>2529</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11664</v>
+        <v>11871</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.01765821394397032</v>
+        <v>0.01765821394397033</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006123612420746018</v>
+        <v>0.008003831614475765</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03691155870573277</v>
+        <v>0.03756813119566695</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1748,19 +1748,19 @@
         <v>2808</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>661</v>
+        <v>891</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6594</v>
+        <v>6853</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007879425610977065</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001854775103816247</v>
+        <v>0.00250072961702113</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01850289115056114</v>
+        <v>0.01922986970229712</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -1769,19 +1769,19 @@
         <v>8388</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4083</v>
+        <v>4113</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15115</v>
+        <v>14978</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01247512579884562</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.006072476579255533</v>
+        <v>0.006117691930862987</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02247991160806724</v>
+        <v>0.02227672214043699</v>
       </c>
     </row>
     <row r="19">
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8304</v>
+        <v>9068</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007138472101817906</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02627968824149035</v>
+        <v>0.02869553714770314</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1819,19 +1819,19 @@
         <v>2614</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6593</v>
+        <v>6109</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007335943188063486</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001914031113364311</v>
+        <v>0.001896383392757254</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01849965264398725</v>
+        <v>0.01714144927220508</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1840,19 +1840,19 @@
         <v>4870</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1941</v>
+        <v>1876</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10784</v>
+        <v>10733</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.007243138448124953</v>
+        <v>0.00724313844812495</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002886093801824256</v>
+        <v>0.002789366393554398</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01603888190424204</v>
+        <v>0.01596319501692217</v>
       </c>
     </row>
     <row r="20">
@@ -1869,19 +1869,19 @@
         <v>3786</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9896</v>
+        <v>10280</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01198192530874471</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003102010920134242</v>
+        <v>0.0031032736114859</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0313179262167092</v>
+        <v>0.03253312933182938</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1890,19 +1890,19 @@
         <v>2605</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6020</v>
+        <v>6479</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007309266245243615</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001820692056671474</v>
+        <v>0.001872243683963971</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0168922523477863</v>
+        <v>0.01817933342444162</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1911,19 +1911,19 @@
         <v>6391</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2574</v>
+        <v>2616</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13685</v>
+        <v>13272</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.009505258162107667</v>
+        <v>0.009505258162107665</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003828647745261699</v>
+        <v>0.003890164946507608</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02035309818376153</v>
+        <v>0.01973878520542717</v>
       </c>
     </row>
     <row r="21">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7158</v>
+        <v>7251</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004584993409481961</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02265307823368995</v>
+        <v>0.02294635215767549</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1977,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6797</v>
+        <v>7120</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.002154792020831327</v>
+        <v>0.002154792020831326</v>
       </c>
       <c r="V21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01010872754840096</v>
+        <v>0.01058931996184714</v>
       </c>
     </row>
     <row r="22">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2770</v>
+        <v>3248</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001560122759867309</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.007772626423950933</v>
+        <v>0.00911325399009316</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -2040,16 +2040,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2997</v>
+        <v>2969</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0008269177638629086</v>
+        <v>0.0008269177638629085</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004456888783363507</v>
+        <v>0.004415646889297504</v>
       </c>
     </row>
     <row r="23">
@@ -2066,19 +2066,19 @@
         <v>302922</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>293886</v>
+        <v>293475</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>309240</v>
+        <v>308969</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9586363952359851</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9300410804546158</v>
+        <v>0.9287388277045165</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9786293428544669</v>
+        <v>0.9777719792976445</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>523</v>
@@ -2087,19 +2087,19 @@
         <v>347798</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>342121</v>
+        <v>342477</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>351774</v>
+        <v>351589</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9759152421958486</v>
+        <v>0.9759152421958485</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9599868698337694</v>
+        <v>0.960985134059647</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.987071665702404</v>
+        <v>0.9865528830133157</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>871</v>
@@ -2108,19 +2108,19 @@
         <v>650721</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>640059</v>
+        <v>640827</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>658311</v>
+        <v>658294</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9677947678062275</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.951937170222961</v>
+        <v>0.9530792781611332</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9790834569265534</v>
+        <v>0.9790573809377788</v>
       </c>
     </row>
     <row r="24">
@@ -2212,19 +2212,19 @@
         <v>10015</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3225</v>
+        <v>3067</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23565</v>
+        <v>24434</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02683819395063901</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008642478425004506</v>
+        <v>0.008219612939088109</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06315151979218749</v>
+        <v>0.065480494685904</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -2233,19 +2233,19 @@
         <v>12063</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5688</v>
+        <v>6115</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26009</v>
+        <v>26113</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02858854760393176</v>
+        <v>0.02858854760393177</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01348078156266876</v>
+        <v>0.01449301121279867</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06163785923531011</v>
+        <v>0.06188501571009487</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -2254,19 +2254,19 @@
         <v>22078</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12712</v>
+        <v>12288</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38795</v>
+        <v>38144</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02776710292936142</v>
+        <v>0.02776710292936141</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01598782610280088</v>
+        <v>0.01545439271362586</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04879249701004642</v>
+        <v>0.04797300137690523</v>
       </c>
     </row>
     <row r="26">
@@ -2283,19 +2283,19 @@
         <v>6381</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2641</v>
+        <v>2401</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14423</v>
+        <v>15701</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01710086181845711</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007076826361507853</v>
+        <v>0.006434055989357071</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03865377781380707</v>
+        <v>0.04207615196630319</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2304,19 +2304,19 @@
         <v>5039</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1927</v>
+        <v>1975</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9376</v>
+        <v>10161</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.01194206430823897</v>
+        <v>0.01194206430823898</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004567714983208612</v>
+        <v>0.004680061219950534</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02222022940586846</v>
+        <v>0.02408080268738444</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -2325,19 +2325,19 @@
         <v>11420</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6035</v>
+        <v>5727</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19929</v>
+        <v>19713</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01436309889972486</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00758991275166834</v>
+        <v>0.007202325050090989</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02506406549402341</v>
+        <v>0.02479348656682097</v>
       </c>
     </row>
     <row r="27">
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>20058</v>
+        <v>20601</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.013392642209419</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05375421816772073</v>
+        <v>0.05521000482701115</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5294</v>
+        <v>4206</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.003057618614761075</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01254637321297546</v>
+        <v>0.009966962610968848</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4</v>
@@ -2396,19 +2396,19 @@
         <v>6288</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1481</v>
+        <v>1568</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>20132</v>
+        <v>20832</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.007907867064507194</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.001863129173902847</v>
+        <v>0.001971537450237332</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02532032588276739</v>
+        <v>0.02620022825617417</v>
       </c>
     </row>
     <row r="28">
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13589</v>
+        <v>12630</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007482481916894932</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03641707556045486</v>
+        <v>0.03384848041582334</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2446,19 +2446,19 @@
         <v>4930</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1483</v>
+        <v>1471</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13647</v>
+        <v>14339</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01168402833602306</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003515232228501899</v>
+        <v>0.003487156484717765</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0323423534646318</v>
+        <v>0.03398191418965812</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2467,19 +2467,19 @@
         <v>7722</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1744</v>
+        <v>2735</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>19065</v>
+        <v>19464</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009712233707857327</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002193597488114583</v>
+        <v>0.003439326930266089</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02397785582145859</v>
+        <v>0.0244790965108935</v>
       </c>
     </row>
     <row r="29">
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13765</v>
+        <v>15212</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.00743614634663965</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03688842557194674</v>
+        <v>0.04076654067148707</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2517,19 +2517,19 @@
         <v>4038</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11339</v>
+        <v>12300</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009570040878470285</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001485027451830852</v>
+        <v>0.001507973835139043</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02687235826561815</v>
+        <v>0.02914984946968106</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2538,19 +2538,19 @@
         <v>6813</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1708</v>
+        <v>1680</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>17198</v>
+        <v>18448</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.0085685996577378</v>
+        <v>0.008568599657737798</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002148401207330427</v>
+        <v>0.002113491601584502</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02162927291314803</v>
+        <v>0.02320243665155494</v>
       </c>
     </row>
     <row r="30">
@@ -2567,19 +2567,19 @@
         <v>346185</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>329423</v>
+        <v>326736</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>358350</v>
+        <v>358073</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9277496737579505</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8828276684539267</v>
+        <v>0.8756270789673041</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.960350674185642</v>
+        <v>0.9596074478860982</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>573</v>
@@ -2588,19 +2588,19 @@
         <v>394600</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>381652</v>
+        <v>380556</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>405562</v>
+        <v>404774</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.9351577002585749</v>
+        <v>0.935157700258575</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9044726702856279</v>
+        <v>0.9018742520604306</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9611365885030939</v>
+        <v>0.959269732339781</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>850</v>
@@ -2609,19 +2609,19 @@
         <v>740786</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>721129</v>
+        <v>718828</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>756257</v>
+        <v>755826</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9316810977408114</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9069589975477195</v>
+        <v>0.9040644858242669</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9511392664373078</v>
+        <v>0.950597111803412</v>
       </c>
     </row>
     <row r="31">
@@ -2713,19 +2713,19 @@
         <v>28476</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>21464</v>
+        <v>20253</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>38466</v>
+        <v>37163</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1384570871299523</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1043645310251997</v>
+        <v>0.09847381910172262</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1870316839874956</v>
+        <v>0.1806983492809736</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>108</v>
@@ -2734,19 +2734,19 @@
         <v>47777</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>39488</v>
+        <v>39784</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>57182</v>
+        <v>57998</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2102741103483592</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1737916741403285</v>
+        <v>0.1750941204641818</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2516655266243131</v>
+        <v>0.2552561574646018</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>148</v>
@@ -2755,19 +2755,19 @@
         <v>76253</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>65313</v>
+        <v>63960</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>88816</v>
+        <v>89063</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1761532272273976</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1508805330730989</v>
+        <v>0.1477539901067842</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2051751308862952</v>
+        <v>0.2057461865795427</v>
       </c>
     </row>
     <row r="33">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>5009</v>
+        <v>5271</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.007189602788209287</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02435469171254389</v>
+        <v>0.02563064693878233</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -2805,19 +2805,19 @@
         <v>2269</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>757</v>
+        <v>795</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>6261</v>
+        <v>6504</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.009987231430639646</v>
+        <v>0.009987231430639643</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.003329780024549444</v>
+        <v>0.003497387549834099</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02755604417500541</v>
+        <v>0.02862346964890879</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>6</v>
@@ -2826,19 +2826,19 @@
         <v>3748</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1478</v>
+        <v>1193</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>8209</v>
+        <v>8431</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.008658054090137531</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.00341538549596933</v>
+        <v>0.002756412556143438</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01896444948519998</v>
+        <v>0.01947770041398747</v>
       </c>
     </row>
     <row r="34">
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3872</v>
+        <v>4496</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003793138524423573</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01882825195147507</v>
+        <v>0.02186088348499336</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2876,19 +2876,19 @@
         <v>1667</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4178</v>
+        <v>4325</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.00733587266412564</v>
+        <v>0.007335872664125638</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.00186852545438031</v>
+        <v>0.001961495173545382</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0183875208318192</v>
+        <v>0.01903496239702264</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -2897,7 +2897,7 @@
         <v>2447</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="T34" s="5" t="n">
         <v>5721</v>
@@ -2906,10 +2906,10 @@
         <v>0.005652689317166303</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001905800456307342</v>
+        <v>0.001910104734467061</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01321512027270455</v>
+        <v>0.01321568187181302</v>
       </c>
     </row>
     <row r="35">
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3745</v>
+        <v>3694</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.003609041026732395</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01821030466293843</v>
+        <v>0.01796189218427239</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2950,16 +2950,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5118</v>
+        <v>4261</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.005324412500838454</v>
+        <v>0.005324412500838452</v>
       </c>
       <c r="O35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02252393749588886</v>
+        <v>0.01875365775207226</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -2971,16 +2971,16 @@
         <v>467</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5779</v>
+        <v>5304</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.004509424814715548</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001077980013711083</v>
+        <v>0.001079106746569612</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01334945493984083</v>
+        <v>0.01225378982170647</v>
       </c>
     </row>
     <row r="36">
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1936</v>
+        <v>2206</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001699074206768735</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.008518755175205898</v>
+        <v>0.00970993801550683</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2136</v>
+        <v>1947</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0008918294920067674</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.004933662864002049</v>
+        <v>0.004497514279074644</v>
       </c>
     </row>
     <row r="37">
@@ -3060,19 +3060,19 @@
         <v>174188</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>163819</v>
+        <v>164731</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>181567</v>
+        <v>182574</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8469511305306824</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.796531589346769</v>
+        <v>0.8009672685231449</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8828266527570517</v>
+        <v>0.8877261486972057</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>373</v>
@@ -3081,19 +3081,19 @@
         <v>173906</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>164359</v>
+        <v>163539</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>182678</v>
+        <v>182536</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.7653792988492685</v>
+        <v>0.7653792988492683</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.723363035896711</v>
+        <v>0.7197550687428351</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8039864618324362</v>
+        <v>0.803360544136615</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>608</v>
@@ -3102,19 +3102,19 @@
         <v>348093</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>334670</v>
+        <v>334792</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>359832</v>
+        <v>360643</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.8041347750585762</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.7731271214270984</v>
+        <v>0.7734089137891909</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8312523184796538</v>
+        <v>0.8331273397739084</v>
       </c>
     </row>
     <row r="38">
@@ -3206,19 +3206,19 @@
         <v>12154</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>5833</v>
+        <v>6165</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>21373</v>
+        <v>21244</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04489763473899624</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02154824812303627</v>
+        <v>0.02277194363701308</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07895325751428482</v>
+        <v>0.07847599577729357</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>5</v>
@@ -3227,19 +3227,19 @@
         <v>4238</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1439</v>
+        <v>1252</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>9409</v>
+        <v>10679</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.01606989561817987</v>
+        <v>0.01606989561817986</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.005454363920510194</v>
+        <v>0.004746761449647993</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03567562670368186</v>
+        <v>0.04048948513452202</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>16</v>
@@ -3248,19 +3248,19 @@
         <v>16393</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>9484</v>
+        <v>9517</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>26585</v>
+        <v>27054</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.03067138126978184</v>
+        <v>0.03067138126978183</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01774533843837001</v>
+        <v>0.01780634986925014</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04974161435133382</v>
+        <v>0.05061900554351188</v>
       </c>
     </row>
     <row r="40">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4450</v>
+        <v>4138</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003242626611233954</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01643998503239606</v>
+        <v>0.01528471130552625</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -3298,19 +3298,19 @@
         <v>1790</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5131</v>
+        <v>4925</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.006787443801398953</v>
+        <v>0.00678744380139895</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002007313478282119</v>
+        <v>0.001994019246960921</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01945279661817049</v>
+        <v>0.01867316223573337</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -3319,19 +3319,19 @@
         <v>2668</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>866</v>
+        <v>660</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6556</v>
+        <v>6772</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.004991964900926633</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001620074566600726</v>
+        <v>0.001234509294041145</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01226582788010138</v>
+        <v>0.01266992327780279</v>
       </c>
     </row>
     <row r="41">
@@ -3364,16 +3364,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6479</v>
+        <v>8920</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.006781251489686164</v>
+        <v>0.006781251489686162</v>
       </c>
       <c r="O41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02456515995807231</v>
+        <v>0.03382167746082718</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>6955</v>
+        <v>6509</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00334649214516796</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0130132911944137</v>
+        <v>0.01217807398100273</v>
       </c>
     </row>
     <row r="42">
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4233</v>
+        <v>4217</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.003057348153516699</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0156356341062766</v>
+        <v>0.01557668876017291</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>4350</v>
+        <v>5584</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.003219078774509557</v>
+        <v>0.003219078774509556</v>
       </c>
       <c r="O42" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01649198744783021</v>
+        <v>0.02117244460381147</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5259</v>
+        <v>6071</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.003137160892154827</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.009839850294729214</v>
+        <v>0.01135980650003693</v>
       </c>
     </row>
     <row r="43">
@@ -3529,19 +3529,19 @@
         <v>256847</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>247077</v>
+        <v>247579</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>263199</v>
+        <v>263288</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9488023904962531</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9127093992711043</v>
+        <v>0.9145629602277556</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.972266110445635</v>
+        <v>0.9725953174949785</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>449</v>
@@ -3550,19 +3550,19 @@
         <v>255084</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>248653</v>
+        <v>247858</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>259258</v>
+        <v>259275</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.9671423303162258</v>
+        <v>0.9671423303162253</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9427615409086539</v>
+        <v>0.9397444352053</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9829691202995365</v>
+        <v>0.9830340773282152</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>807</v>
@@ -3571,19 +3571,19 @@
         <v>511931</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>500853</v>
+        <v>501372</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>520138</v>
+        <v>520264</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9578530007919688</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9371258094517519</v>
+        <v>0.9380967885172778</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9732082595411783</v>
+        <v>0.9734435944997848</v>
       </c>
     </row>
     <row r="45">
@@ -3675,19 +3675,19 @@
         <v>34551</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>22339</v>
+        <v>22139</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>51595</v>
+        <v>52218</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.04860667366948274</v>
+        <v>0.04860667366948275</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.03142591978034483</v>
+        <v>0.03114547606747907</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.07258393778658169</v>
+        <v>0.07345928591095381</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>27</v>
@@ -3696,19 +3696,19 @@
         <v>26888</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>17206</v>
+        <v>17854</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>41043</v>
+        <v>41011</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03515385595190582</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02249551533125408</v>
+        <v>0.02334210052866447</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05365959075366507</v>
+        <v>0.05361846253728052</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>53</v>
@@ -3717,19 +3717,19 @@
         <v>61440</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>44830</v>
+        <v>44835</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>84330</v>
+        <v>81949</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0416339524531202</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.03037826371907187</v>
+        <v>0.03038170651059723</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05714517549292463</v>
+        <v>0.0555316709357422</v>
       </c>
     </row>
     <row r="47">
@@ -3746,19 +3746,19 @@
         <v>21093</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>12685</v>
+        <v>13898</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>33847</v>
+        <v>34209</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02967405871090189</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01784553461537867</v>
+        <v>0.01955107255989218</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04761639832334616</v>
+        <v>0.04812433369778404</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>15</v>
@@ -3767,19 +3767,19 @@
         <v>11171</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>6652</v>
+        <v>6646</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>18307</v>
+        <v>18009</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.0146048912365957</v>
+        <v>0.01460489123659569</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.00869665065214811</v>
+        <v>0.008688479064099764</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02393412204100721</v>
+        <v>0.02354560480079207</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>33</v>
@@ -3788,19 +3788,19 @@
         <v>32264</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>22313</v>
+        <v>22114</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>44928</v>
+        <v>46469</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02186356830161531</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01512010053285245</v>
+        <v>0.01498511780556762</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03044470326519664</v>
+        <v>0.0314893469623148</v>
       </c>
     </row>
     <row r="48">
@@ -3817,19 +3817,19 @@
         <v>8714</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4120</v>
+        <v>4250</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>16909</v>
+        <v>16572</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01225819723707721</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.005796224641110941</v>
+        <v>0.005978491355692997</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.02378770360296558</v>
+        <v>0.02331279682103167</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>8</v>
@@ -3838,19 +3838,19 @@
         <v>8211</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>3361</v>
+        <v>3557</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>16612</v>
+        <v>17898</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01073453727785625</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.004394602360975744</v>
+        <v>0.004650133579841293</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02171885826549478</v>
+        <v>0.02340039333522774</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>16</v>
@@ -3859,19 +3859,19 @@
         <v>16924</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>9914</v>
+        <v>9396</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>28668</v>
+        <v>28500</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01146847003291677</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.006718021880983328</v>
+        <v>0.006367208165763349</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.01942666431053661</v>
+        <v>0.01931288562149597</v>
       </c>
     </row>
     <row r="49">
@@ -3888,19 +3888,19 @@
         <v>14257</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>6227</v>
+        <v>6222</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>30869</v>
+        <v>29497</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02005653704232775</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.00875943917645982</v>
+        <v>0.008753521006714169</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.0434258484579572</v>
+        <v>0.04149595337724817</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>5</v>
@@ -3909,19 +3909,19 @@
         <v>7775</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>2396</v>
+        <v>2929</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>18485</v>
+        <v>21412</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01016532234401623</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.003132638815703519</v>
+        <v>0.00382985032716104</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02416759410015113</v>
+        <v>0.02799397879471144</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>13</v>
@@ -3930,19 +3930,19 @@
         <v>22032</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>12532</v>
+        <v>12337</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>41798</v>
+        <v>39396</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.01492982797435295</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.008492179725854049</v>
+        <v>0.008360001205320286</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02832426199336118</v>
+        <v>0.02669596677536222</v>
       </c>
     </row>
     <row r="50">
@@ -3959,19 +3959,19 @@
         <v>11725</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>3587</v>
+        <v>3887</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>27693</v>
+        <v>27662</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01649419450371096</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.005046717063262973</v>
+        <v>0.005468658310505114</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03895878915137269</v>
+        <v>0.03891408445013476</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>5</v>
@@ -3980,19 +3980,19 @@
         <v>9308</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>3379</v>
+        <v>3288</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>21005</v>
+        <v>22828</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01216868922834242</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.004417222674371606</v>
+        <v>0.004299121001730234</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02746207779084777</v>
+        <v>0.02984542125581795</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>10</v>
@@ -4001,19 +4001,19 @@
         <v>21032</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>10065</v>
+        <v>10779</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>38551</v>
+        <v>38819</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.01425224467295962</v>
+        <v>0.01425224467295961</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.006820655994871656</v>
+        <v>0.007304184859673729</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02612349757430809</v>
+        <v>0.02630519713386495</v>
       </c>
     </row>
     <row r="51">
@@ -4030,19 +4030,19 @@
         <v>620496</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>597897</v>
+        <v>595582</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>641267</v>
+        <v>640157</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.8729103388364995</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.8411185075966271</v>
+        <v>0.8378608043707427</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.9021305435625444</v>
+        <v>0.9005690672174028</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>890</v>
@@ -4051,19 +4051,19 @@
         <v>701522</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>681116</v>
+        <v>681687</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>717819</v>
+        <v>715657</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.9171727039612835</v>
+        <v>0.9171727039612836</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.8904933380720651</v>
+        <v>0.8912395632644939</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.9384789996255475</v>
+        <v>0.9356526166920999</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>1416</v>
@@ -4072,19 +4072,19 @@
         <v>1322019</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>1292608</v>
+        <v>1291125</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>1347756</v>
+        <v>1347691</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.8958519365650353</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.8759222901331127</v>
+        <v>0.8749172033916512</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.9132927369598299</v>
+        <v>0.9132483825355892</v>
       </c>
     </row>
     <row r="52">
@@ -4176,19 +4176,19 @@
         <v>10800</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>4549</v>
+        <v>4440</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>21199</v>
+        <v>21000</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.0135661085892979</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.005713488535130916</v>
+        <v>0.005577475275811125</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02662780439912359</v>
+        <v>0.02637753311738451</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>15</v>
@@ -4197,19 +4197,19 @@
         <v>14336</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>8208</v>
+        <v>8069</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>25033</v>
+        <v>24452</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.01724411214381945</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.00987332069217298</v>
+        <v>0.009705543330190606</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.03011153579682614</v>
+        <v>0.02941300167055388</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>23</v>
@@ -4218,19 +4218,19 @@
         <v>25136</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>15902</v>
+        <v>15223</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>38240</v>
+        <v>38660</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.01544489506672091</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.009771354971877271</v>
+        <v>0.009353976258025596</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.02349681475973716</v>
+        <v>0.02375499668696389</v>
       </c>
     </row>
     <row r="54">
@@ -4247,19 +4247,19 @@
         <v>4476</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1597</v>
+        <v>1627</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>10401</v>
+        <v>11075</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.005622158727478671</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.002005802499731915</v>
+        <v>0.002043879288282055</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.01306518564038979</v>
+        <v>0.01391147160131316</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>11</v>
@@ -4268,19 +4268,19 @@
         <v>7596</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>4102</v>
+        <v>4105</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>13013</v>
+        <v>12921</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.009136981931198452</v>
+        <v>0.009136981931198454</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.004934262551733631</v>
+        <v>0.004937317312853346</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.015653261107318</v>
+        <v>0.01554212967766373</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>16</v>
@@ -4289,19 +4289,19 @@
         <v>12072</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>7355</v>
+        <v>6997</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>19704</v>
+        <v>19810</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.007417589919371683</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.004519025166455413</v>
+        <v>0.004299387179316276</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.01210700146231033</v>
+        <v>0.01217212964664455</v>
       </c>
     </row>
     <row r="55">
@@ -4318,19 +4318,19 @@
         <v>13149</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>6345</v>
+        <v>6701</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>24010</v>
+        <v>23418</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.0165162679846824</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.007969749040977333</v>
+        <v>0.008417462204271867</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.03015910136978624</v>
+        <v>0.02941498955679945</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>8</v>
@@ -4339,19 +4339,19 @@
         <v>7355</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>3133</v>
+        <v>3139</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>14435</v>
+        <v>13581</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.008847183224365668</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.003768550356684457</v>
+        <v>0.003775756983609594</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.01736337157350952</v>
+        <v>0.01633653795406637</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>18</v>
@@ -4360,19 +4360,19 @@
         <v>20504</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>11484</v>
+        <v>11824</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>32031</v>
+        <v>32061</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.01259876966574227</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.007056427084227924</v>
+        <v>0.007265038122989566</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.01968141864201109</v>
+        <v>0.01969991715614826</v>
       </c>
     </row>
     <row r="56">
@@ -4389,19 +4389,19 @@
         <v>10058</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>5034</v>
+        <v>4766</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>19140</v>
+        <v>18753</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.01263352377791765</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.00632372761827579</v>
+        <v>0.005986991398929924</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.0240417763768207</v>
+        <v>0.02355493820126942</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>10</v>
@@ -4410,19 +4410,19 @@
         <v>9344</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>4305</v>
+        <v>4647</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>16995</v>
+        <v>19723</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.01124004140699887</v>
+        <v>0.01124004140699888</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.005178034512009181</v>
+        <v>0.005589393071327997</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.02044347007933698</v>
+        <v>0.02372497364742899</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>19</v>
@@ -4431,19 +4431,19 @@
         <v>19402</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>11967</v>
+        <v>11512</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>30151</v>
+        <v>29599</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.01192170939378225</v>
+        <v>0.01192170939378226</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.007353100390063523</v>
+        <v>0.007073630248614869</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.01852662186687776</v>
+        <v>0.01818719799232727</v>
       </c>
     </row>
     <row r="57">
@@ -4460,19 +4460,19 @@
         <v>3288</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>8998</v>
+        <v>10027</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.004130104312638447</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.001072941389384632</v>
+        <v>0.00107149127489949</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.01130215334466695</v>
+        <v>0.01259513652729405</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>5</v>
@@ -4481,19 +4481,19 @@
         <v>4103</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>1359</v>
+        <v>1389</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>9507</v>
+        <v>10567</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.004935234006798721</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.001634186623167564</v>
+        <v>0.001671131203594148</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.01143537056018243</v>
+        <v>0.01271087473525921</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>8</v>
@@ -4502,19 +4502,19 @@
         <v>7391</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>3197</v>
+        <v>3171</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>14311</v>
+        <v>14234</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.004541378189766829</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.001964684030077304</v>
+        <v>0.001948372584600959</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.00879350406577901</v>
+        <v>0.008746183238754663</v>
       </c>
     </row>
     <row r="58">
@@ -4531,19 +4531,19 @@
         <v>754352</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>738331</v>
+        <v>738473</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>766900</v>
+        <v>765871</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.9475318366079851</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.9274084474350884</v>
+        <v>0.9275860480605256</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.9632934075461106</v>
+        <v>0.9620005775493259</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>1013</v>
@@ -4552,19 +4552,19 @@
         <v>788598</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>774036</v>
+        <v>774861</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>799775</v>
+        <v>800034</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.948596447286819</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.9310809554585251</v>
+        <v>0.9320729864637389</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.9620421409258697</v>
+        <v>0.9623532437270372</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>1738</v>
@@ -4573,19 +4573,19 @@
         <v>1542950</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>1524834</v>
+        <v>1522612</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>1558469</v>
+        <v>1560783</v>
       </c>
       <c r="U58" s="6" t="n">
-        <v>0.948075657764616</v>
+        <v>0.9480756577646162</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.9369441507381935</v>
+        <v>0.9355788128093849</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.9576108191535629</v>
+        <v>0.9590332596341752</v>
       </c>
     </row>
     <row r="59">
@@ -4677,19 +4677,19 @@
         <v>119264</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>96831</v>
+        <v>97749</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>146575</v>
+        <v>149659</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.03386302653573871</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.02749338888032912</v>
+        <v>0.0277540707250759</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.04161740956783815</v>
+        <v>0.04249297716424614</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>189</v>
@@ -4698,19 +4698,19 @@
         <v>125579</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>106411</v>
+        <v>105448</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>151674</v>
+        <v>148770</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.03368483498204049</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.02854322494681235</v>
+        <v>0.02828474557801645</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.04068427844400415</v>
+        <v>0.03990549249431053</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>295</v>
@@ -4719,19 +4719,19 @@
         <v>244844</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>212478</v>
+        <v>213810</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>282054</v>
+        <v>280492</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.03377139790818488</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.02930724158845908</v>
+        <v>0.02949084839665234</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.03890384938032877</v>
+        <v>0.03868833713890615</v>
       </c>
     </row>
     <row r="61">
@@ -4748,19 +4748,19 @@
         <v>60309</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>44819</v>
+        <v>44640</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>77629</v>
+        <v>82753</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.01712363876307875</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.01272549472314462</v>
+        <v>0.01267479907429431</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.02204140648165157</v>
+        <v>0.02349631332888803</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>52</v>
@@ -4769,19 +4769,19 @@
         <v>37660</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>27952</v>
+        <v>28114</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>50742</v>
+        <v>51645</v>
       </c>
       <c r="N61" s="6" t="n">
-        <v>0.01010165577611301</v>
+        <v>0.01010165577611302</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.007497842465579043</v>
+        <v>0.007541077388017898</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.0136108923756156</v>
+        <v>0.01385309500157744</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>104</v>
@@ -4790,19 +4790,19 @@
         <v>97968</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>80427</v>
+        <v>79834</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>119907</v>
+        <v>119039</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.01351283538632795</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.01109330046806389</v>
+        <v>0.01101160568401272</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.01653879756404172</v>
+        <v>0.01641916424784856</v>
       </c>
     </row>
     <row r="62">
@@ -4819,19 +4819,19 @@
         <v>42606</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>28576</v>
+        <v>28999</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>64423</v>
+        <v>62198</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.01209726462553055</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.008113522734029804</v>
+        <v>0.008233774452440884</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.0182918074504673</v>
+        <v>0.01766016724044937</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>31</v>
@@ -4840,19 +4840,19 @@
         <v>25944</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>17677</v>
+        <v>17216</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>37860</v>
+        <v>37460</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>0.006958968628912842</v>
+        <v>0.006958968628912843</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.004741705413575634</v>
+        <v>0.004617860481097255</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.01015542746501573</v>
+        <v>0.01004805443916405</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>61</v>
@@ -4861,19 +4861,19 @@
         <v>68550</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>53718</v>
+        <v>50761</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>90389</v>
+        <v>89719</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.009455079850977367</v>
+        <v>0.00945507985097737</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.007409341588647454</v>
+        <v>0.007001526036621513</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.01246733929657033</v>
+        <v>0.0123749508699859</v>
       </c>
     </row>
     <row r="63">
@@ -4890,19 +4890,19 @@
         <v>44793</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>29217</v>
+        <v>28709</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>68294</v>
+        <v>65218</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.01271832407804138</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.008295649945633509</v>
+        <v>0.008151494393740929</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.0193907517291727</v>
+        <v>0.0185175710573716</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>24</v>
@@ -4911,19 +4911,19 @@
         <v>26285</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>16893</v>
+        <v>16753</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>41594</v>
+        <v>41507</v>
       </c>
       <c r="N63" s="6" t="n">
-        <v>0.007050452020421275</v>
+        <v>0.007050452020421276</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.004531260659316507</v>
+        <v>0.004493854878986525</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.01115687047080448</v>
+        <v>0.01113376340782975</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>53</v>
@@ -4932,19 +4932,19 @@
         <v>71078</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>51750</v>
+        <v>51410</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>98443</v>
+        <v>95871</v>
       </c>
       <c r="U63" s="6" t="n">
-        <v>0.00980382377198331</v>
+        <v>0.009803823771983314</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.00713787556813194</v>
+        <v>0.007090947739515093</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.01357824149332546</v>
+        <v>0.01322351697377141</v>
       </c>
     </row>
     <row r="64">
@@ -4961,19 +4961,19 @@
         <v>32294</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>17982</v>
+        <v>18127</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>57094</v>
+        <v>57997</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>0.009169440251695705</v>
+        <v>0.009169440251695703</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.005105800481498174</v>
+        <v>0.005146932037994727</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.01621088949338055</v>
+        <v>0.01646712698990959</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>17</v>
@@ -4982,19 +4982,19 @@
         <v>19723</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>11153</v>
+        <v>11513</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>33461</v>
+        <v>34094</v>
       </c>
       <c r="N64" s="6" t="n">
-        <v>0.005290396426473476</v>
+        <v>0.005290396426473477</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.002991572811419531</v>
+        <v>0.003088294201630887</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.008975483760887401</v>
+        <v>0.009145293971909397</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>32</v>
@@ -5003,19 +5003,19 @@
         <v>52017</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>33662</v>
+        <v>34730</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>77879</v>
+        <v>77228</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.007174780827331435</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.004643007347289781</v>
+        <v>0.004790352013100129</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.01074182551076692</v>
+        <v>0.01065211906708205</v>
       </c>
     </row>
     <row r="65">
@@ -5032,19 +5032,19 @@
         <v>3222696</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>3177918</v>
+        <v>3179455</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>3262551</v>
+        <v>3262173</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>0.915028305745915</v>
+        <v>0.9150283057459149</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.9023144996264721</v>
+        <v>0.9027507399969936</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.9263445806748076</v>
+        <v>0.9262371414015533</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>5041</v>
@@ -5053,19 +5053,19 @@
         <v>3492880</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>3459945</v>
+        <v>3457653</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>3520586</v>
+        <v>3518713</v>
       </c>
       <c r="N65" s="6" t="n">
-        <v>0.9369136921660387</v>
+        <v>0.9369136921660389</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.9280793603029973</v>
+        <v>0.9274647010723142</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.9443455905203668</v>
+        <v>0.9438430141930573</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>8175</v>
@@ -5074,19 +5074,19 @@
         <v>6715575</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>6663150</v>
+        <v>6665047</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>6763408</v>
+        <v>6771398</v>
       </c>
       <c r="U65" s="6" t="n">
-        <v>0.9262820822551951</v>
+        <v>0.9262820822551953</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.919051066383454</v>
+        <v>0.9193127436476685</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.9328797280382606</v>
+        <v>0.9339818673151089</v>
       </c>
     </row>
     <row r="66">
